--- a/data/trans_camb/P12A1_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 17,94</t>
+          <t>-2,67; 2,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 32,58</t>
+          <t>-2,01; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 4,54</t>
+          <t>-3,04; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,82</t>
+          <t>-1,58; 2,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,18</t>
+          <t>-1,0; 2,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,49</t>
+          <t>-0,46; 1,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 10,35</t>
+          <t>-0,15; 1,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 19,22</t>
+          <t>0,31; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 5,2</t>
+          <t>-1,85; 1,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 1,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 1,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 2,3</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 2,03</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 1,13</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 1,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,9%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>134,43%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>103,58%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>132,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>216,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>77,33%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>80,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 403,69</t>
+          <t>-80,1; 417,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 646,97</t>
+          <t>-77,6; 533,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,39; 102,69</t>
+          <t>-85,68; 422,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 423,64</t>
+          <t>-55,89; 184,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 580,2</t>
+          <t>-48,37; 344,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 582,03</t>
+          <t>-49,13; 433,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 243,28</t>
+          <t>-23,79; 597,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 392,37</t>
+          <t>4,85; 995,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 119,29</t>
+          <t>-59,9; 99,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,24; 100,79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-63,53; 261,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 333,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-49,21; 330,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-44,63; 67,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-37,82; 120,77</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 2,06</t>
+          <t>-1,91; 0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 8,22</t>
+          <t>-1,27; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,7</t>
+          <t>-1,66; 0,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 9,31</t>
+          <t>-0,98; 2,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 5,64</t>
+          <t>-1,82; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 11,61</t>
+          <t>-1,49; 1,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 4,0</t>
+          <t>-1,7; 0,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,81</t>
+          <t>-0,55; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 6,67</t>
+          <t>-3,75; 0,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 1,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 0,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 0,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 1,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 0,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 1,09</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-61,12%</t>
+          <t>-60,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-35,56%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,77%</t>
+          <t>-19,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>80,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>-65,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-38,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-26,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-45,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-23,88%</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1270,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,31; 310,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1280,62 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 258,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,92; 163,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,56; 311,66</t>
+          <t>-72,36; 169,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 100,38</t>
+          <t>-75,82; 148,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 107,1</t>
+          <t>-37,36; 476,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 191,41</t>
+          <t>-100,0; 57,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,59; 61,92</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-61,16; 140,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-42,29; 239,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-87,56; 63,13</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-86,74; 347,34</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,74</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,44</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,03</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,17 +1435,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,68</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,01</t>
+          <t>0,0; 20,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1147,15 +1465,45 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 16,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1180,35 +1528,65 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 12,91</t>
+          <t>-1,05; 2,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 19,04</t>
+          <t>-0,49; 3,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 4,43</t>
+          <t>-0,62; 3,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,5</t>
+          <t>-2,96; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,37</t>
+          <t>-0,87; 2,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,97</t>
+          <t>-0,58; 0,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 7,54</t>
+          <t>-0,41; 1,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,62</t>
+          <t>0,27; 2,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 5,04</t>
+          <t>-1,6; 0,74</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 0,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,75</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 2,65</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 0,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 1,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>132,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>100,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,33; 236,65</t>
+          <t>-72,77; 306,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 365,11</t>
+          <t>-48,51; 426,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,48; 110,63</t>
+          <t>-51,63; 407,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 166,49</t>
+          <t>-76,1; 105,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 185,19</t>
+          <t>-47,35; 258,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 250,05</t>
+          <t>-48,63; 187,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 147,17</t>
+          <t>-37,32; 221,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 206,86</t>
+          <t>6,5; 426,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 104,26</t>
+          <t>-59,42; 55,6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-52,98; 84,59</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-41,44; 157,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; 227,06</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 314,48</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-57,05; 42,71</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-34,98; 92,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
